--- a/biology/Botanique/Oryza_barthii/Oryza_barthii.xlsx
+++ b/biology/Botanique/Oryza_barthii/Oryza_barthii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oryza barthii, le riz sauvage d'Afrique, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire d'Afrique. 
-Ce sont des plantes herbacées annuelles, aquatiques, aux tiges (chaumes) géniculées ascendantes ou décombantes, pouvant atteindre 60 à 120 cm de long, aux inflorescences en panicules[2].
-Cette espèce sauvage, proche parente du riz africain (Oryza glaberrima), est considérée comme l'ancêtre de ce dernier[3].
-C'est une mauvaise herbe  des rizières d'Afrique occidentale, notamment au Mali, mais également au Ghana, en Côte d'Ivoire, Sierra Leone, Nigeria, Niger et au Tchad[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oryza barthii, le riz sauvage d'Afrique, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire d'Afrique. 
+Ce sont des plantes herbacées annuelles, aquatiques, aux tiges (chaumes) géniculées ascendantes ou décombantes, pouvant atteindre 60 à 120 cm de long, aux inflorescences en panicules.
+Cette espèce sauvage, proche parente du riz africain (Oryza glaberrima), est considérée comme l'ancêtre de ce dernier.
+C'est une mauvaise herbe  des rizières d'Afrique occidentale, notamment au Mali, mais également au Ghana, en Côte d'Ivoire, Sierra Leone, Nigeria, Niger et au Tchad.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 avril 2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 avril 2017) :
 Oryza breviligulata A.Chev. &amp; Roehr., nom. superfl.
 Oryza glaberrima subsp. barthii (A.Chev.) De Wet
 Oryza mezii Prodoehl
